--- a/testcase/orderTestCase.xlsx
+++ b/testcase/orderTestCase.xlsx
@@ -375,7 +375,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +435,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,39 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,32 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,27 +504,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -533,55 +533,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,127 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,30 +758,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -792,26 +768,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +795,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -847,10 +847,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -859,133 +859,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2056,7 +2056,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2067,9 +2067,9 @@
     <col min="4" max="4" width="63.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" customWidth="1"/>
     <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
